--- a/src/test/resources/data-files/testData.xlsx
+++ b/src/test/resources/data-files/testData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11109"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bilal/IdeaProjects/AutomationPractice/src/test/resources/data-files/"/>
     </mc:Choice>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="240">
   <si>
     <t>Name</t>
   </si>
@@ -737,12 +737,22 @@
   </si>
   <si>
     <t> Cafe Patron (uncredited)</t>
+  </si>
+  <si>
+    <t> Coleen / ...</t>
+  </si>
+  <si>
+    <t>Simon Strutt</t>
+  </si>
+  <si>
+    <t> Tilbury Fair Goer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1089,9 +1099,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="48.33203125" customWidth="1"/>
-    <col min="3" max="3" width="25.33203125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="24.0"/>
+    <col min="2" max="2" customWidth="true" width="48.33203125"/>
+    <col min="3" max="3" customWidth="true" width="25.33203125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -1198,12 +1208,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" customWidth="1"/>
-    <col min="2" max="2" width="32" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="17.33203125"/>
+    <col min="2" max="2" customWidth="true" width="32.0"/>
+    <col min="3" max="3" customWidth="true" width="20.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1214,7 +1224,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1225,7 +1235,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1236,7 +1246,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1247,7 +1257,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1258,7 +1268,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -1269,7 +1279,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -1280,7 +1290,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -1291,7 +1301,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9">
       <c r="A9" t="s">
         <v>39</v>
       </c>
@@ -1302,7 +1312,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10">
       <c r="A10" t="s">
         <v>42</v>
       </c>
@@ -1313,7 +1323,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11">
       <c r="A11" t="s">
         <v>45</v>
       </c>
@@ -1324,7 +1334,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12">
       <c r="A12" t="s">
         <v>48</v>
       </c>
@@ -1335,7 +1345,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13">
       <c r="A13" t="s">
         <v>50</v>
       </c>
@@ -1346,7 +1356,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -1357,7 +1367,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15">
       <c r="A15" t="s">
         <v>55</v>
       </c>
@@ -1368,7 +1378,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16">
       <c r="A16" t="s">
         <v>57</v>
       </c>
@@ -1379,7 +1389,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17">
       <c r="A17" t="s">
         <v>60</v>
       </c>
@@ -1390,7 +1400,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18">
       <c r="A18" t="s">
         <v>62</v>
       </c>
@@ -1401,7 +1411,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19">
       <c r="A19" t="s">
         <v>65</v>
       </c>
@@ -1412,7 +1422,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20">
       <c r="A20" t="s">
         <v>68</v>
       </c>
@@ -1423,271 +1433,271 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21">
       <c r="A21" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B21" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C21" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B22" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C22" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B23" t="s">
-        <v>77</v>
+        <v>237</v>
       </c>
       <c r="C23" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B24" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C24" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B25" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C25" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B26" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C26" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B27" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C27" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B28" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C28" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B29" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C29" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B30" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C30" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B31" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C31" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32">
       <c r="A32" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B32" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C32" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B33" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C33" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B34" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C34" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B35" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C35" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>117</v>
+      </c>
+      <c r="B36" t="s">
+        <v>118</v>
+      </c>
+      <c r="C36" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>114</v>
-      </c>
-      <c r="B36" t="s">
-        <v>115</v>
-      </c>
-      <c r="C36" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37">
       <c r="A37" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B37" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C37" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>122</v>
+      </c>
+      <c r="B38" t="s">
+        <v>123</v>
+      </c>
+      <c r="C38" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>119</v>
-      </c>
-      <c r="B38" t="s">
-        <v>120</v>
-      </c>
-      <c r="C38" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39">
       <c r="A39" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B39" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C39" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40">
       <c r="A40" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B40" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C40" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B41" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C41" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B42" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C42" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B43" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C43" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44">
       <c r="A44" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B44" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C44" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45">
       <c r="A45" t="s">
         <v>137</v>
       </c>
@@ -1698,161 +1708,161 @@
         <v>134</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46">
       <c r="A46" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B46" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C46" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47">
       <c r="A47" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B47" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C47" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B48" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C48" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49">
       <c r="A49" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B49" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C49" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>149</v>
+      </c>
+      <c r="B50" t="s">
+        <v>150</v>
+      </c>
+      <c r="C50" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>147</v>
-      </c>
-      <c r="B50" t="s">
-        <v>148</v>
-      </c>
-      <c r="C50" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51">
       <c r="A51" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B51" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C51" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52">
       <c r="A52" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B52" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="C52" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B53" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C53" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54">
       <c r="A54" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B54" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C54" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55">
       <c r="A55" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B55" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C55" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>160</v>
+      </c>
+      <c r="B56" t="s">
+        <v>161</v>
+      </c>
+      <c r="C56" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>162</v>
+      </c>
+      <c r="B57" t="s">
+        <v>163</v>
+      </c>
+      <c r="C57" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>158</v>
-      </c>
-      <c r="B56" t="s">
-        <v>159</v>
-      </c>
-      <c r="C56" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>160</v>
-      </c>
-      <c r="B57" t="s">
-        <v>161</v>
-      </c>
-      <c r="C57" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58">
       <c r="A58" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B58" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C58" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59">
       <c r="A59" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B59" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C59" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60">
       <c r="A60" t="s">
         <v>166</v>
       </c>
@@ -1863,315 +1873,315 @@
         <v>134</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61">
       <c r="A61" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B61" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C61" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="62">
       <c r="A62" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B62" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C62" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63">
       <c r="A63" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B63" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C63" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64">
       <c r="A64" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B64" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C64" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="65">
       <c r="A65" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B65" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C65" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66">
       <c r="A66" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B66" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C66" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>182</v>
+      </c>
+      <c r="B67" t="s">
+        <v>183</v>
+      </c>
+      <c r="C67" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>180</v>
-      </c>
-      <c r="B67" t="s">
-        <v>181</v>
-      </c>
-      <c r="C67" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68">
       <c r="A68" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B68" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C68" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="69">
       <c r="A69" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B69" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C69" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70">
       <c r="A70" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B70" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C70" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="71">
       <c r="A71" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B71" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C71" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72">
       <c r="A72" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B72" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C72" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>194</v>
+      </c>
+      <c r="B73" t="s">
+        <v>195</v>
+      </c>
+      <c r="C73" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>196</v>
+      </c>
+      <c r="B74" t="s">
+        <v>197</v>
+      </c>
+      <c r="C74" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>192</v>
-      </c>
-      <c r="B73" t="s">
-        <v>193</v>
-      </c>
-      <c r="C73" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>194</v>
-      </c>
-      <c r="B74" t="s">
-        <v>195</v>
-      </c>
-      <c r="C74" t="s">
+    <row r="75">
+      <c r="A75" t="s">
+        <v>198</v>
+      </c>
+      <c r="B75" t="s">
+        <v>199</v>
+      </c>
+      <c r="C75" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>196</v>
-      </c>
-      <c r="B75" t="s">
-        <v>197</v>
-      </c>
-      <c r="C75" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76">
       <c r="A76" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B76" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C76" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77">
       <c r="A77" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B77" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C77" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>204</v>
+      </c>
+      <c r="B78" t="s">
+        <v>205</v>
+      </c>
+      <c r="C78" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>202</v>
-      </c>
-      <c r="B78" t="s">
-        <v>203</v>
-      </c>
-      <c r="C78" t="s">
+    <row r="79">
+      <c r="A79" t="s">
+        <v>206</v>
+      </c>
+      <c r="B79" t="s">
+        <v>207</v>
+      </c>
+      <c r="C79" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>204</v>
-      </c>
-      <c r="B79" t="s">
-        <v>205</v>
-      </c>
-      <c r="C79" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80">
       <c r="A80" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B80" t="s">
-        <v>207</v>
+        <v>34</v>
       </c>
       <c r="C80" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81">
       <c r="A81" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B81" t="s">
-        <v>34</v>
+        <v>210</v>
       </c>
       <c r="C81" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>211</v>
+      </c>
+      <c r="B82" t="s">
+        <v>212</v>
+      </c>
+      <c r="C82" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>209</v>
-      </c>
-      <c r="B82" t="s">
-        <v>210</v>
-      </c>
-      <c r="C82" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83">
       <c r="A83" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B83" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C83" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84">
       <c r="A84" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B84" t="s">
-        <v>214</v>
+        <v>159</v>
       </c>
       <c r="C84" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85">
       <c r="A85" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B85" t="s">
-        <v>159</v>
+        <v>217</v>
       </c>
       <c r="C85" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="86">
       <c r="A86" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B86" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C86" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87">
       <c r="A87" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B87" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C87" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="88">
       <c r="A88" t="s">
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="B88" t="s">
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="C88" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89">
       <c r="A89" t="s">
         <v>7</v>
       </c>
@@ -2182,40 +2192,40 @@
         <v>134</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90">
       <c r="A90" t="s">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="B90" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C90" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91">
       <c r="A91" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B91" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C91" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92">
       <c r="A92" t="s">
-        <v>225</v>
+        <v>6</v>
       </c>
       <c r="B92" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C92" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93">
       <c r="A93" t="s">
         <v>227</v>
       </c>
@@ -2226,7 +2236,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94">
       <c r="A94" t="s">
         <v>229</v>
       </c>
@@ -2237,7 +2247,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95">
       <c r="A95" t="s">
         <v>231</v>
       </c>
@@ -2248,7 +2258,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96">
       <c r="A96" t="s">
         <v>233</v>
       </c>
@@ -2259,7 +2269,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97">
       <c r="A97" t="s">
         <v>235</v>
       </c>
